--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3669327.783117496</v>
+        <v>3665023.443307628</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015061</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>12.83417464571001</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032233</v>
+        <v>97.26234557100793</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.155295256393265</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="3">
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527771</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>155.5029504629211</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>219.5175884193032</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248086</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>119.5195780548205</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>232.047715488148</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015058</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>72.6354465643924</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015058</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015058</v>
+        <v>212.568965117905</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>109.3170492634408</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>87.03713011038801</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527771</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1059,10 +1059,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>83.43224246993569</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>183.8188053469515</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>270.3785281413906</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5491597882495</v>
+        <v>102.4768236056227</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203003</v>
+        <v>301.0334742203005</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425464997</v>
+        <v>65.76608425465065</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348408</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3351760237737</v>
+        <v>133.5587268592341</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614501</v>
+        <v>92.83909691614511</v>
       </c>
       <c r="I9" t="n">
-        <v>18.47335059663465</v>
+        <v>20.24979976115252</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901737</v>
+        <v>134.3791152901739</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0697045406876</v>
+        <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
         <v>225.8092543744329</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1341,22 +1341,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503844</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>155.5098239651366</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>50.34571932179777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444134</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.752258470135</v>
@@ -1536,10 +1536,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>176.7621441121405</v>
+        <v>182.4326803923963</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1612,19 +1612,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695538</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881287</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>250.0085427849191</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444134</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695538</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>90.14863908058143</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2092,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2241,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D22" t="n">
-        <v>24.83266606353211</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2329,13 +2329,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695538</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V23" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2481,16 +2481,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2535,10 +2535,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>180.0179497934419</v>
       </c>
       <c r="W25" t="n">
-        <v>54.10799870228453</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>99.6514066310757</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2851,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560529</v>
       </c>
     </row>
     <row r="30">
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,10 +3009,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>40.96105405076426</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>75.21356227238321</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>24.83266606353065</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>224.783716519562</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="39">
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>59.96838802184498</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3711,10 +3711,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>133.605923711194</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>39.52129633183119</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3909,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>94.30373791808204</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>147.6895341487365</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>40.15381658332819</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>833.1938928750985</v>
+        <v>423.8554133656</v>
       </c>
       <c r="C2" t="n">
-        <v>566.8162363079207</v>
+        <v>157.477756798422</v>
       </c>
       <c r="D2" t="n">
-        <v>300.4385797407429</v>
+        <v>157.477756798422</v>
       </c>
       <c r="E2" t="n">
-        <v>300.4385797407429</v>
+        <v>157.477756798422</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356494</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.2826908791767</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>294.517494751591</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030607</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
         <v>888.5149683358413</v>
@@ -4351,31 +4351,31 @@
         <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>840.4214638411523</v>
+        <v>956.6107264999562</v>
       </c>
       <c r="U2" t="n">
-        <v>840.4214638411523</v>
+        <v>956.6107264999562</v>
       </c>
       <c r="V2" t="n">
-        <v>840.4214638411523</v>
+        <v>956.6107264999562</v>
       </c>
       <c r="W2" t="n">
-        <v>840.4214638411523</v>
+        <v>956.6107264999562</v>
       </c>
       <c r="X2" t="n">
-        <v>840.4214638411523</v>
+        <v>956.6107264999562</v>
       </c>
       <c r="Y2" t="n">
-        <v>833.1938928750985</v>
+        <v>690.2330699327781</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.09711040012049</v>
+        <v>429.7531369569381</v>
       </c>
       <c r="C3" t="n">
-        <v>21.09711040012049</v>
+        <v>429.7531369569381</v>
       </c>
       <c r="D3" t="n">
-        <v>21.09711040012049</v>
+        <v>280.8187272956869</v>
       </c>
       <c r="E3" t="n">
-        <v>21.09711040012049</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012049</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699346</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302311</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267548</v>
+        <v>478.4519222278689</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560895</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212814</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212814</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>879.4459488765306</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>651.3101029133441</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V3" t="n">
-        <v>651.3101029133441</v>
+        <v>819.7034117742821</v>
       </c>
       <c r="W3" t="n">
-        <v>397.0727461851425</v>
+        <v>597.9684739770062</v>
       </c>
       <c r="X3" t="n">
-        <v>397.0727461851425</v>
+        <v>597.9684739770062</v>
       </c>
       <c r="Y3" t="n">
-        <v>189.3124474201885</v>
+        <v>597.9684739770062</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>460.963982329337</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="C4" t="n">
-        <v>460.963982329337</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D4" t="n">
-        <v>460.963982329337</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E4" t="n">
-        <v>313.0508887469439</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>313.0508887469439</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>144.4815281019473</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>144.4815281019473</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.469937207554</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816802</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>848.0684854165356</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>727.341638896515</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>727.341638896515</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>727.341638896515</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W4" t="n">
-        <v>460.963982329337</v>
+        <v>820.4638881998146</v>
       </c>
       <c r="X4" t="n">
-        <v>460.963982329337</v>
+        <v>592.4743373017973</v>
       </c>
       <c r="Y4" t="n">
-        <v>460.963982329337</v>
+        <v>371.6817581582671</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>367.7894056603322</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="C5" t="n">
-        <v>367.7894056603322</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="D5" t="n">
-        <v>367.7894056603322</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E5" t="n">
-        <v>101.4117490931546</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>94.46624834395116</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012046</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012046</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012046</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.2826908791755</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052536</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L5" t="n">
-        <v>294.51749475159</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030597</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991306</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358402</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P5" t="n">
-        <v>1011.026904601761</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006023</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006023</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946875</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946875</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>900.5447187946875</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>900.5447187946875</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>634.1670622275099</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="X5" t="n">
-        <v>634.1670622275099</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="Y5" t="n">
-        <v>367.7894056603322</v>
+        <v>307.3840804899464</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>209.4975653310273</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C6" t="n">
-        <v>209.4975653310273</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D6" t="n">
-        <v>209.4975653310273</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E6" t="n">
-        <v>121.5812722902313</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F6" t="n">
-        <v>121.5812722902313</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>121.5812722902313</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012046</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012046</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012046</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957454</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298711</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263947</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N6" t="n">
-        <v>694.2029851278855</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O6" t="n">
-        <v>864.1415324546152</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P6" t="n">
-        <v>981.1991324880187</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006023</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212813</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212813</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>839.710557844251</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>839.710557844251</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>839.710557844251</v>
+        <v>801.3675279810723</v>
       </c>
       <c r="W6" t="n">
-        <v>585.4732011160493</v>
+        <v>547.1301712528707</v>
       </c>
       <c r="X6" t="n">
-        <v>585.4732011160493</v>
+        <v>339.2786710473379</v>
       </c>
       <c r="Y6" t="n">
-        <v>377.7129023510954</v>
+        <v>131.518372282384</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337.9463869104205</v>
+        <v>424.4249251342376</v>
       </c>
       <c r="C7" t="n">
-        <v>169.0102039825136</v>
+        <v>255.4887422063307</v>
       </c>
       <c r="D7" t="n">
-        <v>169.0102039825136</v>
+        <v>105.3721027939949</v>
       </c>
       <c r="E7" t="n">
-        <v>21.09711040012046</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F7" t="n">
-        <v>21.09711040012046</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012046</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012046</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012046</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012046</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227043</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075538</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816802</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.062991840707</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>926.062991840707</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>926.062991840707</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>926.062991840707</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>740.3874308841904</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>740.3874308841904</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>740.3874308841904</v>
+        <v>826.8659691080074</v>
       </c>
       <c r="Y7" t="n">
-        <v>519.5948517406603</v>
+        <v>606.0733899644773</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1503.265459468031</v>
+        <v>2049.230175698005</v>
       </c>
       <c r="C8" t="n">
-        <v>1230.155835082788</v>
+        <v>1680.267658757593</v>
       </c>
       <c r="D8" t="n">
-        <v>1230.155835082788</v>
+        <v>1322.001960150842</v>
       </c>
       <c r="E8" t="n">
-        <v>844.3675824845441</v>
+        <v>936.2137075525982</v>
       </c>
       <c r="F8" t="n">
-        <v>837.4220817353406</v>
+        <v>525.2278027629907</v>
       </c>
       <c r="G8" t="n">
-        <v>421.7158597270078</v>
+        <v>421.7158597270082</v>
       </c>
       <c r="H8" t="n">
-        <v>117.641643342866</v>
+        <v>117.6416433428662</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685592</v>
+        <v>51.21125520685548</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467184</v>
+        <v>187.3702251467161</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607448</v>
+        <v>442.1757437607402</v>
       </c>
       <c r="L8" t="n">
-        <v>795.186282904597</v>
+        <v>795.1862829045899</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995233</v>
+        <v>1219.647962995222</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209592</v>
+        <v>1655.591685209579</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940605</v>
+        <v>2053.905718940589</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550209</v>
+        <v>2359.35653055019</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661176</v>
+        <v>2540.564622661155</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342796</v>
+        <v>2560.562760342774</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342796</v>
+        <v>2435.830015762127</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342796</v>
+        <v>2435.830015762127</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342796</v>
+        <v>2435.830015762127</v>
       </c>
       <c r="V8" t="n">
-        <v>2229.499872999225</v>
+        <v>2435.830015762127</v>
       </c>
       <c r="W8" t="n">
-        <v>1876.731217729111</v>
+        <v>2435.830015762127</v>
       </c>
       <c r="X8" t="n">
-        <v>1503.265459468031</v>
+        <v>2435.830015762127</v>
       </c>
       <c r="Y8" t="n">
-        <v>1503.265459468031</v>
+        <v>2435.830015762127</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010909</v>
+        <v>929.5097208010686</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199639</v>
+        <v>755.0566915199416</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818587127</v>
+        <v>606.1222818586904</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532572</v>
+        <v>446.8848268532349</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801422</v>
+        <v>300.3502688801199</v>
       </c>
       <c r="G9" t="n">
-        <v>163.6480708763303</v>
+        <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>69.87120530446668</v>
+        <v>71.66559839993883</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685592</v>
+        <v>51.21125520685548</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637195</v>
+        <v>113.4887579637182</v>
       </c>
       <c r="K9" t="n">
-        <v>559.9063389572724</v>
+        <v>298.0857543148167</v>
       </c>
       <c r="L9" t="n">
-        <v>854.442322390755</v>
+        <v>592.6217377482972</v>
       </c>
       <c r="M9" t="n">
-        <v>1217.508790865058</v>
+        <v>955.6882062225975</v>
       </c>
       <c r="N9" t="n">
-        <v>1658.446678513544</v>
+        <v>1342.772608695166</v>
       </c>
       <c r="O9" t="n">
-        <v>1990.333488500934</v>
+        <v>1883.031862405868</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.36884693056</v>
+        <v>2445.345361789029</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342796</v>
+        <v>2560.562760342774</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342796</v>
+        <v>2560.562760342774</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251712</v>
+        <v>2424.826280251689</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.81647768536</v>
+        <v>2230.816477685338</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.72632175159</v>
+        <v>2002.726321751568</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519847</v>
+        <v>1767.574213519825</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791646</v>
+        <v>1513.336856791623</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586113</v>
+        <v>1305.485356586091</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821159</v>
+        <v>1097.725057821137</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>517.1540250450089</v>
+        <v>665.0671186274016</v>
       </c>
       <c r="C10" t="n">
-        <v>348.217842117102</v>
+        <v>496.1309356994947</v>
       </c>
       <c r="D10" t="n">
-        <v>198.1012027047663</v>
+        <v>346.0142962871589</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1012027047663</v>
+        <v>198.1012027047658</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685592</v>
+        <v>51.21125520685548</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685592</v>
+        <v>51.21125520685548</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685592</v>
+        <v>51.21125520685548</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685592</v>
+        <v>51.21125520685548</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380206</v>
+        <v>76.63468308380105</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676579</v>
+        <v>248.2500215676559</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368938</v>
+        <v>523.3850043368907</v>
       </c>
       <c r="M10" t="n">
-        <v>823.865389990406</v>
+        <v>823.8653899904017</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101616</v>
+        <v>1122.63564010161</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931095</v>
+        <v>1382.582027931088</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616504</v>
+        <v>1581.490387616496</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477367</v>
+        <v>1635.769145477359</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477367</v>
+        <v>1635.769145477359</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.128892699201</v>
+        <v>1635.769145477359</v>
       </c>
       <c r="T10" t="n">
-        <v>1282.048262431387</v>
+        <v>1635.769145477359</v>
       </c>
       <c r="U10" t="n">
-        <v>1282.048262431387</v>
+        <v>1584.914883536149</v>
       </c>
       <c r="V10" t="n">
-        <v>1027.3637742255</v>
+        <v>1584.914883536149</v>
       </c>
       <c r="W10" t="n">
-        <v>737.946604188539</v>
+        <v>1295.497713499189</v>
       </c>
       <c r="X10" t="n">
-        <v>737.946604188539</v>
+        <v>1067.508162601171</v>
       </c>
       <c r="Y10" t="n">
-        <v>517.1540250450089</v>
+        <v>846.7155834576413</v>
       </c>
     </row>
     <row r="11">
@@ -5026,49 +5026,49 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1465.200520057987</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N12" t="n">
-        <v>2092.798483612593</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612593</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429803</v>
@@ -5196,55 +5196,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2018.514925172274</v>
+        <v>2012.787110747773</v>
       </c>
       <c r="U13" t="n">
-        <v>2018.514925172274</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>923.0670414349513</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1550.665004989558</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O15" t="n">
-        <v>2102.574735228845</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2526.197884723913</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>800.6374272687974</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1431.068022140585</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1203.078471242567</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.2858920990371</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.830887436268</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,34 +5530,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239597</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>931.4710609784063</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>2106.003314093041</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>2106.003314093041</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1851.318825887154</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1561.901655850193</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1333.912104952176</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>1113.119525808646</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5731,31 +5731,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.830887436268</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5785,16 +5785,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5831,25 +5831,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2824.769373306003</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>2824.769373306003</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>2799.685872231728</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>2651.772778649335</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>2504.882831151424</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>2337.686731866304</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3455.19996817779</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3227.210417279773</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3006.417838136243</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5968,19 +5968,19 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5989,13 +5989,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>2233.355914590558</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>2381.981709809277</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>2877.307316025036</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>3474.685803651587</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>4102.283767206194</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784063</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
         <v>317.6151975578602</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1561.901655850193</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>1333.912104952176</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>1113.119525808646</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.9553291057244</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851784</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>1876.803094014472</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>1876.803094014472</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1587.385923977512</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>1359.396373079494</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>1138.603793935964</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6657,16 +6657,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6682,10 +6682,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6703,19 +6703,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3046.798896214207</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>2877.8627132863</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>2727.746073873964</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>2727.746073873964</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>2580.856126376054</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>2413.660027090934</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2413.660027090934</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3966.646661122954</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3677.229491085994</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3449.239940187977</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3228.447361044447</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,16 +6934,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1963.765362972544</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3047.734188001555</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>2878.798005073648</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D37" t="n">
-        <v>2728.681365661313</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>2728.681365661313</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>3994.276890218172</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>3739.592402012286</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>3450.175231975325</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>3450.175231975325</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>3229.382652831795</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7253,28 +7253,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>781.3544215660705</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>612.4182386381636</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D40" t="n">
-        <v>612.4182386381636</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
         <v>317.6151975578602</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2244.961901336507</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2244.961901336507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1955.886674680705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1701.202186474818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1411.785016437858</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1183.79546553984</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>963.0028863963103</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7393,55 +7393,55 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168604</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>473.9330993947872</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>323.8164599824514</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>175.9033664000583</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7642,28 +7642,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7721,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>768.5380889459582</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C46" t="n">
-        <v>599.6019060180513</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D46" t="n">
-        <v>449.4852666057155</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>301.5721730233224</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854706</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W46" t="n">
-        <v>1398.968683817745</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X46" t="n">
-        <v>1170.979132919728</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y46" t="n">
-        <v>950.1865537761979</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761162</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418308</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127275</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>45.78351343583194</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>51.53815565544051</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8157,7 +8157,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>65.3429583777515</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761162</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418308</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>51.53815565544025</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>45.78351343583147</v>
+        <v>97.32166909127245</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,19 +8543,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>54.39745977365232</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>210.4772158821351</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348474</v>
+        <v>20.98618304348534</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -23424,10 +23424,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>40.64330621514776</v>
+        <v>34.97276993489194</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>36.51445555167186</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>127.2568112467068</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D22" t="n">
-        <v>123.7828069546802</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>72.11969353038606</v>
       </c>
       <c r="W25" t="n">
-        <v>232.4149996343065</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>186.5330677581684</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>211.1765892730637</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>6.052274046182319</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>142.4141550350972</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>61.40075786968217</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>86.46557462472418</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>47.42036229045056</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -25806,7 +25806,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>0.925938869475857</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>105.2672314396031</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>673683.8018159573</v>
+        <v>673683.8018159572</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>654256.4952621774</v>
+        <v>654256.4952621773</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>654256.4952621774</v>
+        <v>654256.4952621773</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>654256.4952621774</v>
+        <v>654256.4952621773</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>654256.4952621775</v>
+        <v>654256.4952621774</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>654256.4952621774</v>
+        <v>654256.4952621773</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>654256.4952621774</v>
+        <v>654256.4952621773</v>
       </c>
     </row>
     <row r="14">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.6813710695</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710693</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.6813710696</v>
       </c>
       <c r="E2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="F2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="G2" t="n">
         <v>766789.2697055057</v>
       </c>
-      <c r="F2" t="n">
-        <v>766789.2697055063</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="I2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="H2" t="n">
-        <v>766789.2697055057</v>
-      </c>
-      <c r="I2" t="n">
-        <v>766789.2697055062</v>
-      </c>
       <c r="J2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="K2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="L2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="L2" t="n">
-        <v>766789.2697055057</v>
-      </c>
       <c r="M2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="N2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="N2" t="n">
-        <v>766789.269705506</v>
-      </c>
       <c r="O2" t="n">
-        <v>766789.2697055056</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="P2" t="n">
         <v>766789.2697055057</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911927</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580825</v>
+        <v>390680.0076580766</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606905</v>
+        <v>507909.2320606954</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911417</v>
+        <v>68999.15441911409</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101855</v>
+        <v>95270.23779101705</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954683</v>
+        <v>132717.9756954696</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>248543.2666865468</v>
+        <v>248543.2666865467</v>
       </c>
       <c r="C4" t="n">
-        <v>248543.2666865468</v>
+        <v>248543.2666865467</v>
       </c>
       <c r="D4" t="n">
-        <v>136854.4547662829</v>
+        <v>136854.4547662845</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756548</v>
+        <v>9337.200356756541</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756552</v>
+        <v>9337.200356756563</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.20035675655</v>
+        <v>9337.200356756577</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756603</v>
+        <v>9337.200356756581</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756603</v>
+        <v>9337.200356756581</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756653</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756621</v>
       </c>
       <c r="L4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="N4" t="n">
         <v>9337.20035675659</v>
@@ -26459,7 +26459,7 @@
         <v>9337.20035675659</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756632</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426617</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567921</v>
+        <v>92902.86757567879</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-211689.3691109365</v>
+        <v>-211689.3691109366</v>
       </c>
       <c r="C6" t="n">
-        <v>468398.6114802565</v>
+        <v>468398.6114802564</v>
       </c>
       <c r="D6" t="n">
-        <v>159552.3513710246</v>
+        <v>159552.3513710297</v>
       </c>
       <c r="E6" t="n">
-        <v>148420.3074641515</v>
+        <v>148072.9282097901</v>
       </c>
       <c r="F6" t="n">
-        <v>656329.5395248425</v>
+        <v>655982.160270485</v>
       </c>
       <c r="G6" t="n">
-        <v>656329.5395248421</v>
+        <v>655982.1602704851</v>
       </c>
       <c r="H6" t="n">
-        <v>656329.5395248422</v>
+        <v>655982.1602704853</v>
       </c>
       <c r="I6" t="n">
-        <v>656329.5395248425</v>
+        <v>655982.1602704852</v>
       </c>
       <c r="J6" t="n">
-        <v>587330.3851057276</v>
+        <v>586983.0058513712</v>
       </c>
       <c r="K6" t="n">
-        <v>656329.5395248424</v>
+        <v>655982.1602704852</v>
       </c>
       <c r="L6" t="n">
-        <v>561059.3017338235</v>
+        <v>560711.9224794683</v>
       </c>
       <c r="M6" t="n">
-        <v>523611.5638293737</v>
+        <v>523264.1845750156</v>
       </c>
       <c r="N6" t="n">
-        <v>656329.5395248424</v>
+        <v>655982.1602704852</v>
       </c>
       <c r="O6" t="n">
-        <v>656329.5395248419</v>
+        <v>655982.1602704853</v>
       </c>
       <c r="P6" t="n">
-        <v>656329.5395248421</v>
+        <v>655982.160270485</v>
       </c>
     </row>
   </sheetData>
@@ -26712,13 +26712,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.055013769478</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.055013769478</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627854</v>
+        <v>933.702459562781</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015058</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.140690085699</v>
+        <v>640.1406900856934</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.055013769478</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933074</v>
+        <v>319.6474457933026</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788886</v>
+        <v>434.2730407788928</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841932</v>
+        <v>376.4268100841873</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139498</v>
+        <v>532.5675980139549</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015065</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841932</v>
+        <v>376.4268100841873</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139498</v>
+        <v>532.5675980139549</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841932</v>
+        <v>376.4268100841873</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139498</v>
+        <v>532.5675980139549</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695015</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917687</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402054</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>115.0273700322153</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>379.0826433996603</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="3">
@@ -27463,10 +27463,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27475,10 +27475,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150561</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>39.33803712195572</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>32.17739474161641</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888212</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>103.6947678247454</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508492</v>
+        <v>54.47528284844296</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,19 +27618,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>118.216490070756</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>340.1987280813176</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032233</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590721</v>
+        <v>85.52708871590681</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545478</v>
+        <v>173.6689735381486</v>
       </c>
     </row>
     <row r="6">
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>57.21613438642653</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27703,7 +27703,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>70.60795034501294</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27712,10 +27712,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150561</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27748,19 +27748,19 @@
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27779,10 +27779,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>63.00172017663348</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27794,10 +27794,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248086</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888212</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
@@ -27833,13 +27833,13 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>68.31883797687655</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>94.89436362961698</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>309.0723361826268</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348404</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896856</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1.776449164539571</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.776449164517537</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>147.2573199590396</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430993</v>
+        <v>104.8162497430996</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640951</v>
+        <v>101.5869591640955</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>65.24166454520216</v>
+        <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>235.8814704485066</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28326,10 +28326,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28377,22 +28377,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28614,13 +28614,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-5.871155988128721e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>-2.622960624653845e-14</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="T23" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="V23" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29580,7 +29580,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>7.07318341828168e-13</v>
       </c>
     </row>
     <row r="30">
@@ -30747,7 +30747,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425035</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
-        <v>25.28116948649915</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350877</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016251</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167916</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.458039945929</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.471844198683</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658378</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
-        <v>155.0658623465205</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702305</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990946</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458303</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542724</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5986520825178</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736542</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944812</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020919</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582785</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244973</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779065</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
-        <v>173.5762393840509</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4489843734693</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919118</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350553</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715649</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339134</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425035</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649915</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350877</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016251</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167916</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.458039945929</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.471844198683</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658378</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465205</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702305</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990946</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458303</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N6" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542724</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825178</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736542</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944812</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020919</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582785</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244973</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779065</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M7" t="n">
-        <v>173.5762393840509</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734693</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919118</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350553</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715649</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339134</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885567</v>
+        <v>3.753577726885549</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546682</v>
+        <v>38.44132789546664</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157559</v>
+        <v>144.7098053157553</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972541</v>
+        <v>318.5802175972526</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763203</v>
+        <v>477.469162776318</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354946</v>
+        <v>592.3427171354917</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359958</v>
+        <v>659.0954050359926</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525095</v>
+        <v>669.7602577525063</v>
       </c>
       <c r="O8" t="n">
-        <v>632.435619230791</v>
+        <v>632.435619230788</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983035</v>
+        <v>539.7691690983009</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.344166754214</v>
+        <v>405.3441667542121</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864757</v>
+        <v>235.7856768864746</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140494</v>
+        <v>85.53465245140453</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944158</v>
+        <v>16.4312864994415</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508453</v>
+        <v>0.3002862181508438</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436935</v>
+        <v>2.008341139436925</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035145</v>
+        <v>19.39634732035136</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026289</v>
+        <v>69.14683309026256</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079431</v>
+        <v>189.7441951079421</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502177</v>
+        <v>324.3030514502161</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571292</v>
+        <v>436.0654741571271</v>
       </c>
       <c r="M9" t="n">
-        <v>508.867840461718</v>
+        <v>508.8678404617156</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152228</v>
+        <v>522.3360580152203</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519096</v>
+        <v>477.8354464519073</v>
       </c>
       <c r="P9" t="n">
-        <v>383.50507249476</v>
+        <v>383.5050724947581</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463708</v>
+        <v>256.3629847463696</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204792</v>
+        <v>124.6933209204786</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366409</v>
+        <v>37.30405581366391</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133958</v>
+        <v>8.095024154133919</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419036</v>
+        <v>0.132127706541903</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752564</v>
+        <v>1.683725746752556</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840008</v>
+        <v>14.96985254840001</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415893</v>
+        <v>50.63422518415869</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954062</v>
+        <v>119.0394102954057</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772524</v>
+        <v>195.6183185772514</v>
       </c>
       <c r="L10" t="n">
-        <v>250.324098749013</v>
+        <v>250.3240987490118</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023132</v>
+        <v>263.931664102312</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462357</v>
+        <v>257.6559590462344</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046261</v>
+        <v>237.986981004625</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708736</v>
+        <v>203.6389757708727</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939806</v>
+        <v>140.9890713939799</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307435</v>
+        <v>75.70643221307398</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658785</v>
+        <v>29.34274778658771</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19410091794277</v>
+        <v>7.194100917942736</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650358</v>
+        <v>0.09183958618650315</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>689.7436082887205</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>556.532545233504</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>167.1165249313363</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>167.4835451665585</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32551,28 +32551,28 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32788,10 +32788,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>287.9685048518523</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,7 +32812,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>328.9038320421819</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,34 +33259,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>416.7024900153332</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33508,16 +33508,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>641.2555750770852</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>456.5952253539618</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33973,10 +33973,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33985,19 +33985,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>251.886104915025</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34131,7 +34131,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663279</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34207,31 +34207,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>269.1634560719508</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34447,13 +34447,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>590.4022545401851</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.470283312177</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664455</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468043</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186563</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.058780602092</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.826860744151</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716376</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117347</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089031</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659561</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823472</v>
+        <v>238.3094620181793</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460656</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="O3" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649633</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966405</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458915</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5811567526979</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496797</v>
+        <v>6.560263827496884</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.470283312177</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664455</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468043</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186563</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.058780602092</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.826860744151</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716376</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117347</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763038</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659561</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>263.7138800015058</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>74.40039143232779</v>
+        <v>125.9385470877689</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966405</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L7" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458915</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N7" t="n">
-        <v>213.5811567526979</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O7" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496797</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705679</v>
+        <v>137.5343130705663</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313397</v>
+        <v>257.3793117313375</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655073</v>
+        <v>356.5763021655045</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087231</v>
+        <v>428.7491718087199</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559185</v>
+        <v>440.3471941559154</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091042</v>
+        <v>402.3374078091013</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430339</v>
+        <v>308.5361733430314</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797645</v>
+        <v>183.0384768797626</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234355</v>
+        <v>20.20013907234244</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127636</v>
+        <v>62.90656844127545</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884373</v>
+        <v>186.4616124758571</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772551</v>
+        <v>297.511094377253</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396997</v>
+        <v>366.7338065396972</v>
       </c>
       <c r="N9" t="n">
-        <v>445.3918057055418</v>
+        <v>390.994345931887</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074652</v>
+        <v>545.716417889598</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804297</v>
+        <v>567.993433720365</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.4584983961984</v>
+        <v>116.3812106603481</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873347</v>
+        <v>25.6802301787329</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513695</v>
+        <v>173.3488267513686</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093292</v>
+        <v>277.914124009328</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641538</v>
+        <v>303.5155410641526</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254643</v>
+        <v>301.788131425463</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186658</v>
+        <v>262.5721089186646</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357671</v>
+        <v>200.9175350357662</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228621</v>
+        <v>54.82702814228553</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243166</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>547.6095743667022</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>425.1908331501707</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.13475084531481</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>25.34951124454015</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36123,7 +36123,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>150.1270658774933</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790297</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>285.3607779319999</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37156,16 +37156,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>509.9138629937518</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>322.6208179396315</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37621,10 +37621,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37633,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>120.5443928316917</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>127.0294221499325</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>451.847874760311</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3665023.443307628</v>
+        <v>3666783.973610414</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015067</v>
       </c>
       <c r="C2" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015067</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>59.80127191868333</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992222</v>
       </c>
       <c r="T2" t="n">
-        <v>97.26234557100793</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015067</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>8.013551280670427</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527761</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121987</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -797,13 +797,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>219.5175884193032</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888202</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435937</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>232.047715488148</v>
+        <v>192.4514863876928</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>225.403139763615</v>
+      </c>
+      <c r="Y5" t="n">
         <v>263.7138800015062</v>
-      </c>
-      <c r="X5" t="n">
-        <v>263.7138800015062</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>212.568965117905</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>109.3170492634408</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>166.7093757723287</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1062,7 +1062,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>83.43224246993569</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>68.36004337105362</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>274.6220285487199</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>102.4768236056227</v>
+        <v>11.54915978824949</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203005</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465065</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348408</v>
+        <v>123.4854171348407</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>133.5587268592341</v>
+        <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614511</v>
+        <v>92.83909691614507</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115252</v>
+        <v>20.24979976115239</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901739</v>
+        <v>132.6026661256424</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>50.34571932179777</v>
+        <v>50.34571932180069</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444134</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1536,13 +1536,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>30.85302310518022</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1581,22 +1581,22 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>182.4326803923963</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695538</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,10 +1770,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>5.421623586788372</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695538</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2092,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695538</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,13 +2535,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>180.0179497934419</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>185.3892167411514</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2566,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560548</v>
       </c>
     </row>
     <row r="27">
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428257</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2803,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784702</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560529</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428251</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3040,13 +3040,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784708</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428251</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3268,10 +3268,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206849</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>24.83266606353065</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428251</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3514,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417134</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>59.96838802184498</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>65.38324202937406</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428257</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>94.30373791808204</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>147.6895341487365</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>423.8554133656</v>
+        <v>367.7894056603341</v>
       </c>
       <c r="C2" t="n">
-        <v>157.477756798422</v>
+        <v>101.4117490931557</v>
       </c>
       <c r="D2" t="n">
-        <v>157.477756798422</v>
+        <v>101.4117490931557</v>
       </c>
       <c r="E2" t="n">
-        <v>157.477756798422</v>
+        <v>101.4117490931557</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5322560492186</v>
+        <v>94.46624834395219</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>81.50243557050773</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>81.50243557050773</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012053</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052544</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515912</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030614</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.546376199133</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358428</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601763</v>
+        <v>1011.026904601764</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006027</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006027</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.544718794691</v>
       </c>
       <c r="T2" t="n">
-        <v>956.6107264999562</v>
+        <v>900.544718794691</v>
       </c>
       <c r="U2" t="n">
-        <v>956.6107264999562</v>
+        <v>900.544718794691</v>
       </c>
       <c r="V2" t="n">
-        <v>956.6107264999562</v>
+        <v>900.544718794691</v>
       </c>
       <c r="W2" t="n">
-        <v>956.6107264999562</v>
+        <v>900.544718794691</v>
       </c>
       <c r="X2" t="n">
-        <v>956.6107264999562</v>
+        <v>900.544718794691</v>
       </c>
       <c r="Y2" t="n">
-        <v>690.2330699327781</v>
+        <v>634.1670622275126</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>429.7531369569381</v>
+        <v>511.8165005910558</v>
       </c>
       <c r="C3" t="n">
-        <v>429.7531369569381</v>
+        <v>337.3634713099287</v>
       </c>
       <c r="D3" t="n">
-        <v>280.8187272956869</v>
+        <v>188.4290616486775</v>
       </c>
       <c r="E3" t="n">
-        <v>121.5812722902314</v>
+        <v>29.19160664322197</v>
       </c>
       <c r="F3" t="n">
-        <v>121.5812722902314</v>
+        <v>29.19160664322197</v>
       </c>
       <c r="G3" t="n">
-        <v>121.5812722902314</v>
+        <v>29.19160664322197</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>29.19160664322197</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012053</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012053</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>95.78113116957489</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>242.5255548298719</v>
       </c>
       <c r="M3" t="n">
-        <v>478.4519222278689</v>
+        <v>503.6022960313634</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>739.5286634293611</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>909.4672107560912</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>1026.524810789495</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006027</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212817</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166566</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166566</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166566</v>
       </c>
       <c r="V3" t="n">
-        <v>819.7034117742821</v>
+        <v>887.8833378166566</v>
       </c>
       <c r="W3" t="n">
-        <v>597.9684739770062</v>
+        <v>887.8833378166566</v>
       </c>
       <c r="X3" t="n">
-        <v>597.9684739770062</v>
+        <v>680.0318376111238</v>
       </c>
       <c r="Y3" t="n">
-        <v>597.9684739770062</v>
+        <v>680.0318376111238</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.0332933280274</v>
+        <v>204.8909145793413</v>
       </c>
       <c r="C4" t="n">
-        <v>21.0971104001205</v>
+        <v>204.8909145793413</v>
       </c>
       <c r="D4" t="n">
-        <v>21.0971104001205</v>
+        <v>204.8909145793413</v>
       </c>
       <c r="E4" t="n">
-        <v>21.0971104001205</v>
+        <v>204.8909145793413</v>
       </c>
       <c r="F4" t="n">
-        <v>21.0971104001205</v>
+        <v>204.8909145793413</v>
       </c>
       <c r="G4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.3215539343448</v>
       </c>
       <c r="H4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.3215539343448</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.3215539343448</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012053</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.413376528796</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551024</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375352</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227063</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075561</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816805</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006027</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006027</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>848.068485416538</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>848.068485416538</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>848.068485416538</v>
       </c>
       <c r="V4" t="n">
-        <v>1054.855520006025</v>
+        <v>848.068485416538</v>
       </c>
       <c r="W4" t="n">
-        <v>820.4638881998146</v>
+        <v>653.6730446208887</v>
       </c>
       <c r="X4" t="n">
-        <v>592.4743373017973</v>
+        <v>425.6834937228714</v>
       </c>
       <c r="Y4" t="n">
-        <v>371.6817581582671</v>
+        <v>204.8909145793413</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>307.3840804899464</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="C5" t="n">
-        <v>41.00642392276842</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="D5" t="n">
-        <v>41.00642392276842</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276842</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="G5" t="n">
         <v>21.0971104001205</v>
@@ -4603,16 +4603,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="W5" t="n">
         <v>788.4778634388467</v>
       </c>
       <c r="X5" t="n">
-        <v>522.1002068716687</v>
+        <v>560.79792428368</v>
       </c>
       <c r="Y5" t="n">
-        <v>307.3840804899464</v>
+        <v>294.4202677165019</v>
       </c>
     </row>
     <row r="6">
@@ -4670,28 +4670,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V6" t="n">
-        <v>801.3675279810723</v>
+        <v>819.7034117742821</v>
       </c>
       <c r="W6" t="n">
-        <v>547.1301712528707</v>
+        <v>565.4660550460806</v>
       </c>
       <c r="X6" t="n">
-        <v>339.2786710473379</v>
+        <v>397.0727461851425</v>
       </c>
       <c r="Y6" t="n">
-        <v>131.518372282384</v>
+        <v>189.3124474201885</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>424.4249251342376</v>
+        <v>355.3743762745875</v>
       </c>
       <c r="C7" t="n">
-        <v>255.4887422063307</v>
+        <v>186.4381933466805</v>
       </c>
       <c r="D7" t="n">
-        <v>105.3721027939949</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="E7" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="F7" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G7" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H7" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I7" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J7" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4764,13 +4764,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>1054.855520006025</v>
+        <v>985.8049711463747</v>
       </c>
       <c r="X7" t="n">
-        <v>826.8659691080074</v>
+        <v>757.8154202483573</v>
       </c>
       <c r="Y7" t="n">
-        <v>606.0733899644773</v>
+        <v>537.0228411048272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2049.230175698005</v>
+        <v>1074.4467779042</v>
       </c>
       <c r="C8" t="n">
-        <v>1680.267658757593</v>
+        <v>705.4842609637888</v>
       </c>
       <c r="D8" t="n">
-        <v>1322.001960150842</v>
+        <v>347.2185623570383</v>
       </c>
       <c r="E8" t="n">
-        <v>936.2137075525982</v>
+        <v>69.82257392398789</v>
       </c>
       <c r="F8" t="n">
-        <v>525.2278027629907</v>
+        <v>62.87707317478442</v>
       </c>
       <c r="G8" t="n">
-        <v>421.7158597270082</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428662</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685548</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467161</v>
+        <v>187.3702251467169</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607402</v>
+        <v>442.1757437607419</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045899</v>
+        <v>795.1862829045917</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995222</v>
+        <v>1219.647962995225</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209579</v>
+        <v>1655.591685209583</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940589</v>
+        <v>2053.905718940594</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.35653055019</v>
+        <v>2359.356530550197</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661155</v>
+        <v>2540.564622661163</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342774</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762127</v>
+        <v>2435.830015762135</v>
       </c>
       <c r="T8" t="n">
-        <v>2435.830015762127</v>
+        <v>2435.830015762135</v>
       </c>
       <c r="U8" t="n">
-        <v>2435.830015762127</v>
+        <v>2182.248837287705</v>
       </c>
       <c r="V8" t="n">
-        <v>2435.830015762127</v>
+        <v>1851.185949944134</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.830015762127</v>
+        <v>1851.185949944134</v>
       </c>
       <c r="X8" t="n">
-        <v>2435.830015762127</v>
+        <v>1851.185949944134</v>
       </c>
       <c r="Y8" t="n">
-        <v>2435.830015762127</v>
+        <v>1461.046617968322</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010686</v>
+        <v>931.3041138965631</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199416</v>
+        <v>756.8510846154361</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818586904</v>
+        <v>607.9166749541848</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532349</v>
+        <v>448.6792199487294</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801199</v>
+        <v>302.1446619756144</v>
       </c>
       <c r="G9" t="n">
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993883</v>
+        <v>71.66559839993886</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685548</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637182</v>
+        <v>238.3188829507235</v>
       </c>
       <c r="K9" t="n">
-        <v>298.0857543148167</v>
+        <v>613.7598241331813</v>
       </c>
       <c r="L9" t="n">
-        <v>592.6217377482972</v>
+        <v>908.2958075666625</v>
       </c>
       <c r="M9" t="n">
-        <v>955.6882062225975</v>
+        <v>1271.362276040964</v>
       </c>
       <c r="N9" t="n">
-        <v>1342.772608695166</v>
+        <v>1658.446678513533</v>
       </c>
       <c r="O9" t="n">
-        <v>1883.031862405868</v>
+        <v>1990.333488500922</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789029</v>
+        <v>2237.368846930546</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342774</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342774</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251689</v>
+        <v>2426.620673347184</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685338</v>
+        <v>2232.610870780833</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751568</v>
+        <v>2004.520714847062</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519825</v>
+        <v>1769.368606615319</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791623</v>
+        <v>1515.131249887118</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586091</v>
+        <v>1307.279749681585</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821137</v>
+        <v>1099.519450916631</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.0671186274016</v>
+        <v>665.0671186274018</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1309356994947</v>
+        <v>496.1309356994949</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0142962871589</v>
+        <v>346.0142962871591</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1012027047658</v>
+        <v>198.101202704766</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685548</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685548</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685548</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685548</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380105</v>
+        <v>76.63468308380143</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676559</v>
+        <v>248.2500215676567</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368907</v>
+        <v>523.3850043368918</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904017</v>
+        <v>823.8653899904033</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.63564010161</v>
+        <v>1122.635640101612</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931088</v>
+        <v>1382.582027931091</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616496</v>
+        <v>1581.490387616499</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477359</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477359</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477359</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477359</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="U10" t="n">
-        <v>1584.914883536149</v>
+        <v>1584.91488353615</v>
       </c>
       <c r="V10" t="n">
-        <v>1584.914883536149</v>
+        <v>1584.91488353615</v>
       </c>
       <c r="W10" t="n">
         <v>1295.497713499189</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.508162601171</v>
+        <v>1067.508162601172</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7155834576413</v>
+        <v>846.7155834576415</v>
       </c>
     </row>
     <row r="11">
@@ -5026,64 +5026,64 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5129,10 +5129,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.8641191832229</v>
+        <v>962.6357307816187</v>
       </c>
       <c r="C13" t="n">
-        <v>634.927936255316</v>
+        <v>793.6995478537118</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>643.582908441376</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>495.6698148589829</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>348.7798673610725</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5229,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2012.787110747773</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1723.711884091971</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1206.305163156993</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y13" t="n">
-        <v>985.5125840134626</v>
+        <v>1144.284195611858</v>
       </c>
     </row>
     <row r="14">
@@ -5278,10 +5278,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2092.798483612594</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>99.29305050937427</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>99.29305050937427</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="17">
@@ -5497,25 +5497,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436268</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5740,22 +5740,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.830887436268</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5770,7 +5770,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5971,16 +5971,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5992,7 +5992,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332388</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168596</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.61155333239</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014782</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355941</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068014</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="32">
@@ -6679,70 +6679,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,64 +6925,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C37" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192609</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>695.5020655703109</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C40" t="n">
-        <v>695.5020655703109</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D40" t="n">
-        <v>545.3854261579752</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1622.342175037157</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1332.925005000197</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="41">
@@ -7399,49 +7399,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L42" t="n">
         <v>1072.713683962606</v>
@@ -7502,7 +7502,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797186</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="44">
@@ -7642,16 +7642,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7721,16 +7721,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7739,7 +7739,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>633.9926444679666</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761139</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418152</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8066,10 +8066,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>45.78351343583194</v>
+        <v>71.18793141915904</v>
       </c>
       <c r="N3" t="n">
-        <v>51.53815565544051</v>
+        <v>26.13373767211348</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>106.7437663446537</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8157,7 +8157,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.3429583777515</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>192.7716614458168</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>210.4772158821351</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348534</v>
+        <v>20.98618304348511</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>-1.229367810144898e-12</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23424,13 +23424,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>134.6711151870886</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>34.97276993489194</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>75.84421273177716</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>72.11969353038606</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>62.35543909864867</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>143.6212754172151</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194134</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194134</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>142.4141550350972</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194134</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>86.46557462472418</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>186.7544012944539</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194129</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>191.8807364711621</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.925938869475857</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>654256.4952621774</v>
+        <v>654256.4952621773</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>654256.4952621773</v>
+        <v>654256.4952621774</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>654256.4952621773</v>
+        <v>654256.4952621774</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>654256.4952621774</v>
+        <v>654256.4952621773</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>654256.4952621774</v>
+        <v>654256.4952621773</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>654256.4952621773</v>
+        <v>654256.4952621774</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>654256.4952621773</v>
+        <v>654256.4952621774</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>654256.4952621773</v>
+        <v>654256.4952621774</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>654256.4952621774</v>
+        <v>654256.4952621773</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710696</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710693</v>
+        <v>779989.6813710692</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710696</v>
+        <v>779989.6813710687</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.2697055056</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="G2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="H2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055062</v>
       </c>
       <c r="I2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="J2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="K2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="K2" t="n">
-        <v>766789.2697055058</v>
-      </c>
       <c r="L2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.269705506</v>
       </c>
       <c r="M2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055063</v>
       </c>
       <c r="N2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.269705506</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911938</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580766</v>
+        <v>390680.0076580786</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606954</v>
+        <v>507909.2320606935</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911409</v>
+        <v>68999.15441911454</v>
       </c>
       <c r="K3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101705</v>
+        <v>95270.23779101756</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954696</v>
+        <v>132717.9756954691</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>248543.2666865467</v>
+        <v>248543.2666865466</v>
       </c>
       <c r="C4" t="n">
         <v>248543.2666865467</v>
       </c>
       <c r="D4" t="n">
-        <v>136854.4547662845</v>
+        <v>136854.4547662839</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756541</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756563</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756577</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756581</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756581</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756486</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756621</v>
+        <v>9337.200356756488</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.20035675647</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756461</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756453</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756548</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756632</v>
+        <v>9337.200356756592</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426624</v>
       </c>
       <c r="C5" t="n">
         <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567879</v>
+        <v>92902.86757567895</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-211689.3691109366</v>
+        <v>-211689.3691109369</v>
       </c>
       <c r="C6" t="n">
-        <v>468398.6114802564</v>
+        <v>468398.6114802568</v>
       </c>
       <c r="D6" t="n">
-        <v>159552.3513710297</v>
+        <v>159552.3513710272</v>
       </c>
       <c r="E6" t="n">
-        <v>148072.9282097901</v>
+        <v>148385.5695387129</v>
       </c>
       <c r="F6" t="n">
-        <v>655982.160270485</v>
+        <v>656294.8015994064</v>
       </c>
       <c r="G6" t="n">
-        <v>655982.1602704851</v>
+        <v>656294.8015994066</v>
       </c>
       <c r="H6" t="n">
-        <v>655982.1602704853</v>
+        <v>656294.8015994068</v>
       </c>
       <c r="I6" t="n">
-        <v>655982.1602704852</v>
+        <v>656294.8015994066</v>
       </c>
       <c r="J6" t="n">
-        <v>586983.0058513712</v>
+        <v>587295.6471802923</v>
       </c>
       <c r="K6" t="n">
-        <v>655982.1602704852</v>
+        <v>656294.8015994066</v>
       </c>
       <c r="L6" t="n">
-        <v>560711.9224794683</v>
+        <v>561024.5638083892</v>
       </c>
       <c r="M6" t="n">
-        <v>523264.1845750156</v>
+        <v>523576.8259039378</v>
       </c>
       <c r="N6" t="n">
-        <v>655982.1602704852</v>
+        <v>656294.8015994065</v>
       </c>
       <c r="O6" t="n">
-        <v>655982.1602704853</v>
+        <v>656294.8015994066</v>
       </c>
       <c r="P6" t="n">
-        <v>655982.160270485</v>
+        <v>656294.8015994068</v>
       </c>
     </row>
   </sheetData>
@@ -26712,13 +26712,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694788</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.702459562781</v>
+        <v>933.7024595627827</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015067</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856934</v>
+        <v>640.1406900856955</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,19 +26813,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694788</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-2.229405470162132e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933026</v>
+        <v>319.6474457933043</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788928</v>
+        <v>434.2730407788911</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,13 +26977,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015067</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841873</v>
+        <v>376.4268100841893</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139549</v>
+        <v>532.5675980139529</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,22 +27035,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015069</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841873</v>
+        <v>376.4268100841893</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139549</v>
+        <v>532.5675980139529</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015067</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841873</v>
+        <v>376.4268100841893</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139549</v>
+        <v>532.5675980139529</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619744</v>
+        <v>119.0199616619739</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695014</v>
+        <v>101.5590117695009</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>314.1936326292679</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>55.5053476282137</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>115.0273700322153</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>122.5240586545469</v>
       </c>
     </row>
     <row r="3">
@@ -27460,7 +27460,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27475,10 +27475,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>35.90825272083513</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
@@ -27517,13 +27517,13 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>32.17739474161641</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
@@ -27560,7 +27560,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>223.2143458795658</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>54.47528284844296</v>
+        <v>94.07151194889823</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>149.1202946442038</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
@@ -27675,16 +27675,16 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590681</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769628</v>
+        <v>144.327960914854</v>
       </c>
       <c r="Y5" t="n">
-        <v>173.6689735381486</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57.21613438642653</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27760,7 +27760,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>39.06360943114879</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>63.00172017663348</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>218.1629549655374</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>107.3083415235419</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>309.0723361826268</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465039</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,10 +27909,10 @@
         <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27946,7 +27946,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.776449164539571</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.776449164531442</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590396</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430996</v>
+        <v>104.8162497430995</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640955</v>
+        <v>101.5869591640954</v>
       </c>
       <c r="S10" t="n">
         <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103388</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>235.8814704485066</v>
+        <v>235.8814704485037</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28326,10 +28326,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28377,22 +28377,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28614,13 +28614,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29088,13 +29088,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29343,7 +29343,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>-4.288543152807226e-13</v>
       </c>
     </row>
     <row r="27">
@@ -29580,7 +29580,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>7.07318341828168e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -30747,7 +30747,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425039</v>
       </c>
       <c r="H2" t="n">
-        <v>25.28116948649916</v>
+        <v>25.28116948649918</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.16927002350889</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388636</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016255</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167921</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459296</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986836</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658383</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269076</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.5770185656231</v>
+        <v>266.5770185656233</v>
       </c>
       <c r="R2" t="n">
-        <v>155.0658623465206</v>
+        <v>155.0658623465207</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702313</v>
       </c>
       <c r="T2" t="n">
-        <v>10.8061339609081</v>
+        <v>10.80613396090811</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.197485029554003</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787181</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75612396528671</v>
+        <v>12.75612396528672</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990952</v>
       </c>
       <c r="J3" t="n">
         <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919897</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458307</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043659</v>
       </c>
       <c r="N3" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293993</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542728</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480714</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5986520825179</v>
+        <v>168.598652082518</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736552</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163907</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.32374110994482</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.0868945774202093</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912175</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582798</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244978</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779075</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225236</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440337</v>
       </c>
       <c r="M4" t="n">
-        <v>173.576239384051</v>
+        <v>173.5762393840511</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4489843734694</v>
+        <v>169.4489843734696</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.5135631817682</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555597</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.7223070791913</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350559</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337853</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715654</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339142</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885549</v>
+        <v>3.753577726885556</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546664</v>
+        <v>38.44132789546671</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157553</v>
+        <v>144.7098053157555</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972526</v>
+        <v>318.5802175972532</v>
       </c>
       <c r="K8" t="n">
-        <v>477.469162776318</v>
+        <v>477.4691627763189</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354917</v>
+        <v>592.3427171354929</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359926</v>
+        <v>659.0954050359938</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525063</v>
+        <v>669.7602577525074</v>
       </c>
       <c r="O8" t="n">
-        <v>632.435619230788</v>
+        <v>632.4356192307891</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983009</v>
+        <v>539.769169098302</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542121</v>
+        <v>405.3441667542128</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864746</v>
+        <v>235.785676886475</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140453</v>
+        <v>85.53465245140468</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4312864994415</v>
+        <v>16.43128649944153</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508438</v>
+        <v>0.3002862181508444</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436925</v>
+        <v>2.008341139436929</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035136</v>
+        <v>19.3963473203514</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026256</v>
+        <v>69.14683309026269</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079421</v>
+        <v>189.7441951079425</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502161</v>
+        <v>324.3030514502167</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571271</v>
+        <v>436.0654741571279</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617156</v>
+        <v>508.8678404617165</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152203</v>
+        <v>522.3360580152213</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519073</v>
+        <v>477.8354464519082</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947581</v>
+        <v>383.5050724947588</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463696</v>
+        <v>256.3629847463701</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204786</v>
+        <v>124.6933209204788</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366391</v>
+        <v>37.30405581366398</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133919</v>
+        <v>8.095024154133935</v>
       </c>
       <c r="U9" t="n">
-        <v>0.132127706541903</v>
+        <v>0.1321277065419033</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752556</v>
+        <v>1.683725746752559</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840001</v>
+        <v>14.96985254840003</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415869</v>
+        <v>50.63422518415878</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954057</v>
+        <v>119.0394102954059</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772514</v>
+        <v>195.6183185772518</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490118</v>
+        <v>250.3240987490123</v>
       </c>
       <c r="M10" t="n">
-        <v>263.931664102312</v>
+        <v>263.9316641023124</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462344</v>
+        <v>257.6559590462349</v>
       </c>
       <c r="O10" t="n">
-        <v>237.986981004625</v>
+        <v>237.9869810046254</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708727</v>
+        <v>203.638975770873</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939799</v>
+        <v>140.9890713939802</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307398</v>
+        <v>75.70643221307412</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658771</v>
+        <v>29.34274778658776</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942736</v>
+        <v>7.194100917942749</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650315</v>
+        <v>0.09183958618650331</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31849,13 +31849,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>416.4300581532626</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32089,19 +32089,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>556.532545233504</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32259,7 +32259,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
@@ -32311,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>400.5469039565762</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982882</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982882</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192546</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663279</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200299</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217729</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664495</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468049</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186569</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020927</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441516</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716381</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117386</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763067</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659565</v>
       </c>
       <c r="M3" t="n">
-        <v>238.3094620181793</v>
+        <v>263.7138800015067</v>
       </c>
       <c r="N3" t="n">
-        <v>263.7138800015062</v>
+        <v>238.3094620181795</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>171.6550983098284</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>118.2400000337412</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649653</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966419</v>
       </c>
       <c r="L4" t="n">
-        <v>192.2171678043497</v>
+        <v>192.2171678043499</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458916</v>
+        <v>213.1601163458917</v>
       </c>
       <c r="N4" t="n">
-        <v>213.581156752698</v>
+        <v>213.5811567526981</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958077</v>
+        <v>181.0986910958079</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>131.2029511204532</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496884</v>
+        <v>6.560263827496911</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705663</v>
+        <v>137.534313070567</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313375</v>
+        <v>257.3793117313384</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655045</v>
+        <v>356.5763021655056</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087199</v>
+        <v>428.7491718087211</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559154</v>
+        <v>440.3471941559165</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091013</v>
+        <v>402.3374078091024</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430314</v>
+        <v>308.5361733430324</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797626</v>
+        <v>183.0384768797634</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234244</v>
+        <v>20.20013907234286</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127545</v>
+        <v>188.9976037816847</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758571</v>
+        <v>379.2332739216745</v>
       </c>
       <c r="L9" t="n">
-        <v>297.511094377253</v>
+        <v>297.5110943772538</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396972</v>
+        <v>366.7338065396982</v>
       </c>
       <c r="N9" t="n">
-        <v>390.994345931887</v>
+        <v>390.994345931888</v>
       </c>
       <c r="O9" t="n">
-        <v>545.716417889598</v>
+        <v>335.2392020074638</v>
       </c>
       <c r="P9" t="n">
-        <v>567.993433720365</v>
+        <v>249.5306650804286</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603481</v>
+        <v>326.4584983961977</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.6802301787329</v>
+        <v>25.68023017873313</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513686</v>
+        <v>173.3488267513689</v>
       </c>
       <c r="L10" t="n">
-        <v>277.914124009328</v>
+        <v>277.9141240093284</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641526</v>
+        <v>303.515541064153</v>
       </c>
       <c r="N10" t="n">
-        <v>301.788131425463</v>
+        <v>301.7881314254635</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186646</v>
+        <v>262.5721089186651</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357662</v>
+        <v>200.9175350357665</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228553</v>
+        <v>54.82702814228578</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35497,13 +35497,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>274.2960242312443</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35646,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35655,7 +35655,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35737,19 +35737,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>425.1908331501707</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>257.9506595121318</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762699</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762699</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902957</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359212</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396416</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366966</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
